--- a/TestData/RegistrationData.xlsx
+++ b/TestData/RegistrationData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prati\OneDrive\Documents\GitHub\Uniteify\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327A5FB2-660B-490B-8B89-21A02D413F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A5D1F4-75EE-40C7-BD52-C7F0A8EAE511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>test</t>
   </si>
@@ -42,54 +43,15 @@
     <t>gender</t>
   </si>
   <si>
-    <t>test2</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
-    <t>test3</t>
-  </si>
-  <si>
     <t>123@pass</t>
   </si>
   <si>
-    <t>test4</t>
-  </si>
-  <si>
     <t>Dishant</t>
   </si>
   <si>
-    <t>d4</t>
-  </si>
-  <si>
-    <t>e4</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>b5</t>
-  </si>
-  <si>
-    <t>d5</t>
-  </si>
-  <si>
-    <t>e5</t>
-  </si>
-  <si>
-    <t>test6</t>
-  </si>
-  <si>
-    <t>b6</t>
-  </si>
-  <si>
-    <t>d6</t>
-  </si>
-  <si>
-    <t>e6</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -111,12 +73,6 @@
     <t>confirmPass</t>
   </si>
   <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>cancel</t>
-  </si>
-  <si>
     <t>AMD</t>
   </si>
   <si>
@@ -135,21 +91,12 @@
     <t>17 August 1995</t>
   </si>
   <si>
-    <t>18 August 1995</t>
-  </si>
-  <si>
     <t>CAN</t>
   </si>
   <si>
     <t>USA</t>
   </si>
   <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
     <t>pratik</t>
   </si>
   <si>
@@ -162,7 +109,34 @@
     <t>jana</t>
   </si>
   <si>
-    <t>test1</t>
+    <t>ind</t>
+  </si>
+  <si>
+    <t>123@123</t>
+  </si>
+  <si>
+    <t>123@456</t>
+  </si>
+  <si>
+    <t>abc@123</t>
+  </si>
+  <si>
+    <t>abc@abc</t>
+  </si>
+  <si>
+    <t>lali</t>
+  </si>
+  <si>
+    <t>bhumi</t>
+  </si>
+  <si>
+    <t>rituraj</t>
+  </si>
+  <si>
+    <t>ritli</t>
+  </si>
+  <si>
+    <t>18 August 1998</t>
   </si>
 </sst>
 </file>
@@ -498,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,7 +484,7 @@
     <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,156 +492,170 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="H4" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D6" t="s">
         <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -675,8 +663,28 @@
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{06B67513-7602-4865-8D05-91D46E3B9FF8}"/>
     <hyperlink ref="I3" r:id="rId2" xr:uid="{4FE6E0DD-733F-4CED-8E16-86812607AE75}"/>
+    <hyperlink ref="H2" r:id="rId3" xr:uid="{84A25DD1-CE9C-45AA-B50D-54C2CE02F9F6}"/>
+    <hyperlink ref="I2" r:id="rId4" xr:uid="{DEBF4EAE-CEB3-4FC3-974D-5C4C3162DEAF}"/>
+    <hyperlink ref="H4" r:id="rId5" xr:uid="{49842664-9F49-4F11-937D-3D67A01CF912}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{6899571F-E569-4BC9-A4F7-90FA1E260C66}"/>
+    <hyperlink ref="H5" r:id="rId7" xr:uid="{DDFF9B15-456D-496D-BC20-B70039E54FB1}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{252E9E37-8556-41CF-963F-ADF2AE757A0F}"/>
+    <hyperlink ref="H6" r:id="rId9" xr:uid="{211C1359-5AB8-4CA7-BC23-4CFF54D9BC78}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{DFC1E878-5B97-4AB1-AC6E-2DE5875C091F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FCA544-6FB3-4872-B380-2DBC3CBC3CB8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>